--- a/XLSX-new_customer1.xlsx
+++ b/XLSX-new_customer1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BASF\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C098C7-AB55-4CFC-94ED-E60C64BFCF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6EDAB-0D4A-4AE6-BB68-E3D28F71BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,13 +61,13 @@
     <t>Kumar</t>
   </si>
   <si>
-    <t>virat addtess</t>
-  </si>
-  <si>
-    <t>vikarm@email.com</t>
-  </si>
-  <si>
-    <t>vikarm</t>
+    <t>viraj@email.com</t>
+  </si>
+  <si>
+    <t>viraj addtess</t>
+  </si>
+  <si>
+    <t>viraj</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1020</v>
